--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2772900.870391733</v>
+        <v>-2775828.888458104</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>182.5570120086803</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.396723986041539</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.40229248514496</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>29.00708539155848</v>
       </c>
       <c r="X4" t="n">
-        <v>29.00708539155848</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.5823753787681</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>142.9957675557735</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.62007141147429</v>
+        <v>325.582375378767</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>147.8888157490757</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.3524786953564</v>
       </c>
       <c r="U5" t="n">
         <v>251.1310396195436</v>
       </c>
       <c r="V5" t="n">
-        <v>193.8393590905818</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.582375378767</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5823753787681</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>42.97544783238705</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>141.9852808585996</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.0400458115944</v>
+        <v>11.04004581159454</v>
       </c>
       <c r="S6" t="n">
-        <v>145.0221204098324</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.379249217185</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.30171091767419</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.1863249183064</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>203.0454604709309</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.8039959718186</v>
       </c>
       <c r="U7" t="n">
         <v>286.2533919932169</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>145.8407052814648</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>145.7818465999107</v>
+        <v>265.6962952122121</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>7.397837941417693</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.737817290569923</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>127.9409606477172</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0.9312945272739542</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428213</v>
+        <v>102.1557845699849</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703271</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,10 +2476,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
@@ -2488,13 +2488,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.962173606588</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265257</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3317,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652581</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4183,7 +4183,7 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352486</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>21.46338433294352</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644755</v>
@@ -4343,7 +4343,7 @@
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
@@ -4352,28 +4352,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823981</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659133</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659133</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="V2" t="n">
-        <v>210.8831693494284</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="W2" t="n">
-        <v>210.8831693494284</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="X2" t="n">
-        <v>210.8831693494284</v>
+        <v>199.4030692042958</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494284</v>
+        <v>199.4030692042958</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546605</v>
@@ -4434,25 +4434,25 @@
         <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487952</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323103</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158254</v>
+        <v>30.55991817042172</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158254</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158254</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4525,7 +4525,7 @@
         <v>44.30213322740508</v>
       </c>
       <c r="W4" t="n">
-        <v>44.30213322740508</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
         <v>15.0020469733056</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.73963765978198</v>
+        <v>506.3033462689397</v>
       </c>
       <c r="C5" t="n">
-        <v>45.73963765978198</v>
+        <v>506.3033462689397</v>
       </c>
       <c r="D5" t="n">
-        <v>45.73963765978198</v>
+        <v>506.3033462689397</v>
       </c>
       <c r="E5" t="n">
-        <v>45.73963765978198</v>
+        <v>361.8631770206836</v>
       </c>
       <c r="F5" t="n">
-        <v>38.79413691057851</v>
+        <v>354.9176762714801</v>
       </c>
       <c r="G5" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="H5" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="I5" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="J5" t="n">
-        <v>72.2221974423037</v>
+        <v>72.22219744230347</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1659814074753</v>
+        <v>192.1659814074744</v>
       </c>
       <c r="L5" t="n">
-        <v>377.8686134290994</v>
+        <v>377.8686134290978</v>
       </c>
       <c r="M5" t="n">
-        <v>616.168010063778</v>
+        <v>616.1680100637757</v>
       </c>
       <c r="N5" t="n">
-        <v>862.9371484491875</v>
+        <v>862.9371484491845</v>
       </c>
       <c r="O5" t="n">
-        <v>1082.618987030158</v>
+        <v>1082.618987030155</v>
       </c>
       <c r="P5" t="n">
-        <v>1235.611352881098</v>
+        <v>1235.611352881094</v>
       </c>
       <c r="Q5" t="n">
-        <v>1302.329501515072</v>
+        <v>1302.329501515068</v>
       </c>
       <c r="R5" t="n">
-        <v>1302.329501515072</v>
+        <v>1302.329501515068</v>
       </c>
       <c r="S5" t="n">
-        <v>1152.946859344289</v>
+        <v>1302.329501515068</v>
       </c>
       <c r="T5" t="n">
-        <v>1152.946859344289</v>
+        <v>1088.842149297536</v>
       </c>
       <c r="U5" t="n">
-        <v>899.2791425568711</v>
+        <v>835.1744325101184</v>
       </c>
       <c r="V5" t="n">
-        <v>703.481810142142</v>
+        <v>835.1744325101184</v>
       </c>
       <c r="W5" t="n">
-        <v>703.481810142142</v>
+        <v>506.3033462689397</v>
       </c>
       <c r="X5" t="n">
-        <v>374.6107239009619</v>
+        <v>506.3033462689397</v>
       </c>
       <c r="Y5" t="n">
-        <v>374.6107239009619</v>
+        <v>506.3033462689397</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.45613329533887</v>
+        <v>169.4660656450484</v>
       </c>
       <c r="C6" t="n">
-        <v>26.04659003030145</v>
+        <v>169.4660656450484</v>
       </c>
       <c r="D6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="E6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="F6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="G6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="H6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="I6" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="J6" t="n">
-        <v>34.73061851331816</v>
+        <v>34.73061851331788</v>
       </c>
       <c r="K6" t="n">
-        <v>127.7278310874246</v>
+        <v>127.727831087424</v>
       </c>
       <c r="L6" t="n">
-        <v>299.0966011173144</v>
+        <v>299.0966011173133</v>
       </c>
       <c r="M6" t="n">
-        <v>518.4327409717696</v>
+        <v>518.432740971768</v>
       </c>
       <c r="N6" t="n">
-        <v>757.9827007088661</v>
+        <v>757.9827007088639</v>
       </c>
       <c r="O6" t="n">
-        <v>954.9043187862537</v>
+        <v>954.9043187862511</v>
       </c>
       <c r="P6" t="n">
-        <v>1093.618211966599</v>
+        <v>1093.618211966596</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.329501515072</v>
+        <v>1302.329501515068</v>
       </c>
       <c r="R6" t="n">
-        <v>1291.17794008922</v>
+        <v>1291.177940089215</v>
       </c>
       <c r="S6" t="n">
-        <v>1144.690949776258</v>
+        <v>1291.177940089215</v>
       </c>
       <c r="T6" t="n">
-        <v>948.3482737993031</v>
+        <v>1094.83526411226</v>
       </c>
       <c r="U6" t="n">
-        <v>720.2200404975683</v>
+        <v>866.7070308105256</v>
       </c>
       <c r="V6" t="n">
-        <v>485.0679322658256</v>
+        <v>631.5549225787829</v>
       </c>
       <c r="W6" t="n">
-        <v>485.0679322658256</v>
+        <v>377.3175658505813</v>
       </c>
       <c r="X6" t="n">
-        <v>277.2164320602928</v>
+        <v>169.4660656450484</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.45613329533887</v>
+        <v>169.4660656450484</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="C7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="D7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="E7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="F7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="G7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="H7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="I7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="J7" t="n">
-        <v>26.04659003030145</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="K7" t="n">
-        <v>142.4093010585504</v>
+        <v>142.4093010585501</v>
       </c>
       <c r="L7" t="n">
-        <v>346.839943498444</v>
+        <v>346.8399434984434</v>
       </c>
       <c r="M7" t="n">
-        <v>572.7725157546926</v>
+        <v>572.7725157546918</v>
       </c>
       <c r="N7" t="n">
-        <v>798.7675328486697</v>
+        <v>798.7675328486687</v>
       </c>
       <c r="O7" t="n">
-        <v>991.494213973941</v>
+        <v>991.4942139739397</v>
       </c>
       <c r="P7" t="n">
-        <v>1132.884502010728</v>
+        <v>1132.884502010727</v>
       </c>
       <c r="Q7" t="n">
-        <v>1147.340728455817</v>
+        <v>1147.340728455816</v>
       </c>
       <c r="R7" t="n">
-        <v>1022.910097225204</v>
+        <v>1147.340728455816</v>
       </c>
       <c r="S7" t="n">
-        <v>817.8136725070924</v>
+        <v>942.2443037377036</v>
       </c>
       <c r="T7" t="n">
-        <v>817.8136725070924</v>
+        <v>717.1897623520283</v>
       </c>
       <c r="U7" t="n">
-        <v>528.6688321099036</v>
+        <v>428.0449219548395</v>
       </c>
       <c r="V7" t="n">
-        <v>528.6688321099036</v>
+        <v>173.3604337489527</v>
       </c>
       <c r="W7" t="n">
-        <v>528.6688321099036</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="X7" t="n">
-        <v>300.6792812118863</v>
+        <v>26.04659003030136</v>
       </c>
       <c r="Y7" t="n">
-        <v>79.88670206835619</v>
+        <v>26.04659003030136</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321241</v>
       </c>
       <c r="C8" t="n">
-        <v>692.5532710454991</v>
+        <v>1171.944675321241</v>
       </c>
       <c r="D8" t="n">
-        <v>692.5532710454991</v>
+        <v>813.6789767144903</v>
       </c>
       <c r="E8" t="n">
-        <v>692.5532710454991</v>
+        <v>813.6789767144903</v>
       </c>
       <c r="F8" t="n">
-        <v>685.6077702962956</v>
+        <v>806.7334759652869</v>
       </c>
       <c r="G8" t="n">
-        <v>269.5767249997028</v>
+        <v>390.7024306686941</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961722</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="W8" t="n">
-        <v>1451.655119961722</v>
+        <v>1562.084007297052</v>
       </c>
       <c r="X8" t="n">
-        <v>1451.655119961722</v>
+        <v>1562.084007297052</v>
       </c>
       <c r="Y8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321241</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.4666540631119</v>
+        <v>533.4666540631165</v>
       </c>
       <c r="C9" t="n">
-        <v>359.013624781985</v>
+        <v>359.0136247819895</v>
       </c>
       <c r="D9" t="n">
-        <v>359.013624781985</v>
+        <v>210.0792151207382</v>
       </c>
       <c r="E9" t="n">
-        <v>359.013624781985</v>
+        <v>50.84176011528274</v>
       </c>
       <c r="F9" t="n">
-        <v>212.4790668088699</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>75.60307302398584</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789502</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.295032556957</v>
+        <v>1853.295032556961</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059887</v>
+        <v>2154.745546059892</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2029.495166406375</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>1834.784844880351</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013611</v>
+        <v>1606.683255013616</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781868</v>
+        <v>1371.531146781873</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053667</v>
+        <v>1117.293790053671</v>
       </c>
       <c r="X9" t="n">
-        <v>909.4422898481339</v>
+        <v>909.4422898481384</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.68199108318</v>
+        <v>701.6819910831846</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>58.69630920174252</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>213.7203003246709</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>467.624070672889</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>745.7191196640795</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1022.63630638511</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1262.397853152954</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1444.034594271088</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.190882465729</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1247.957588882176</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="T10" t="n">
-        <v>1024.3537315748</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="U10" t="n">
-        <v>735.2274105488234</v>
+        <v>998.0495720518986</v>
       </c>
       <c r="V10" t="n">
-        <v>735.2274105488234</v>
+        <v>743.3650838460118</v>
       </c>
       <c r="W10" t="n">
-        <v>445.8102405118628</v>
+        <v>453.9479138090512</v>
       </c>
       <c r="X10" t="n">
-        <v>445.8102405118628</v>
+        <v>225.9583629110338</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.0176613683328</v>
+        <v>225.0176613683329</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,13 +5039,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5127,7 +5127,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5601,7 +5601,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5996,16 +5996,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6154,19 +6154,19 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438171</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438171</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6698,16 +6698,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,7 +6716,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6944,31 +6944,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
@@ -7251,13 +7251,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438171</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7558,7 +7558,7 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,31 +7567,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7664,7 +7664,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7734,7 +7734,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,34 +7804,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954153</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.07051318005171</v>
+        <v>47.07051318005199</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.579719069131</v>
+        <v>167.5797190691297</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>182.3656402706162</v>
+        <v>182.3656402706176</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>200.1768296548003</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>249.1946548332746</v>
+        <v>241.1034791810278</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>36.19408632378008</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>98.73949432713027</v>
       </c>
       <c r="V4" t="n">
         <v>64.61205615750799</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>257.5159129450325</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393022</v>
+        <v>46.45968844822741</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788525</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>152821.0045718468</v>
+        <v>152821.0045718455</v>
       </c>
       <c r="D3" t="n">
-        <v>226894.9196888111</v>
+        <v>226894.9196888134</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>19427.71799363177</v>
+      </c>
+      <c r="J3" t="n">
+        <v>49064.94472854471</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35531.399468661</v>
+      </c>
+      <c r="L3" t="n">
+        <v>54802.4475457942</v>
+      </c>
+      <c r="M3" t="n">
+        <v>157146.3805515977</v>
+      </c>
+      <c r="N3" t="n">
         <v>19427.71799363176</v>
-      </c>
-      <c r="J3" t="n">
-        <v>49064.94472854465</v>
-      </c>
-      <c r="K3" t="n">
-        <v>35531.3994686614</v>
-      </c>
-      <c r="L3" t="n">
-        <v>54802.44754579357</v>
-      </c>
-      <c r="M3" t="n">
-        <v>157146.380551598</v>
-      </c>
-      <c r="N3" t="n">
-        <v>19427.71799363174</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>172167.0477913854</v>
       </c>
       <c r="C4" t="n">
-        <v>237501.856903378</v>
+        <v>237501.8569033784</v>
       </c>
       <c r="D4" t="n">
-        <v>173824.4120003228</v>
+        <v>173824.4120003225</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26439,13 +26439,13 @@
         <v>22207.61133994851</v>
       </c>
       <c r="J4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.6113399485</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.6113399485</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="M4" t="n">
         <v>22207.61133994851</v>
@@ -26470,10 +26470,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>67970.4360366555</v>
+        <v>67970.43603665542</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-820509.7507238444</v>
+        <v>-820974.0475158688</v>
       </c>
       <c r="C6" t="n">
-        <v>-458293.2975118803</v>
+        <v>-458293.2975118794</v>
       </c>
       <c r="D6" t="n">
-        <v>-485918.4135450061</v>
+        <v>-485918.4135450083</v>
       </c>
       <c r="E6" t="n">
-        <v>-716782.4894750274</v>
+        <v>-716817.2274004619</v>
       </c>
       <c r="F6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261979</v>
       </c>
       <c r="G6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261978</v>
       </c>
       <c r="H6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261979</v>
       </c>
       <c r="I6" t="n">
         <v>-144799.4451874957</v>
@@ -26546,13 +26546,13 @@
         <v>-174436.6719224086</v>
       </c>
       <c r="K6" t="n">
-        <v>-160903.1266625253</v>
+        <v>-160903.1266625249</v>
       </c>
       <c r="L6" t="n">
-        <v>-180174.1747396575</v>
+        <v>-180174.1747396581</v>
       </c>
       <c r="M6" t="n">
-        <v>-282518.1077454619</v>
+        <v>-282518.1077454616</v>
       </c>
       <c r="N6" t="n">
         <v>-144799.4451874957</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26704,16 +26704,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>667.3131932856147</v>
+        <v>667.3131932856137</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,37 +26790,37 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>325.5823753787681</v>
+        <v>325.582375378767</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,22 +26926,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>118.84325237271</v>
+        <v>118.843252372709</v>
       </c>
       <c r="D3" t="n">
-        <v>186.3974712520694</v>
+        <v>186.3974712520713</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>138.0567882124481</v>
+        <v>138.056788212447</v>
       </c>
       <c r="D4" t="n">
-        <v>216.5325813473951</v>
+        <v>216.5325813473974</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>138.0567882124483</v>
+        <v>138.0567882124468</v>
       </c>
       <c r="L4" t="n">
-        <v>216.5325813473951</v>
+        <v>216.5325813473976</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>138.0567882124481</v>
+        <v>138.056788212447</v>
       </c>
       <c r="L4" t="n">
-        <v>216.5325813473951</v>
+        <v>216.5325813473974</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>163.9031783967834</v>
+        <v>171.9943540490302</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.0745931339332</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.360646473772704</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27506,22 +27506,22 @@
         <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681227</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.3706927183325</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378008</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>196.7025699974787</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.15146628471246</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>238.9346025164882</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>87.03769603270732</v>
       </c>
       <c r="H5" t="n">
         <v>312.0009478816514</v>
       </c>
       <c r="I5" t="n">
-        <v>107.0524046090243</v>
+        <v>107.0524046090245</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>147.8888157490758</v>
       </c>
       <c r="T5" t="n">
-        <v>211.3524786953564</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>133.9128993795531</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>23.65859333864603</v>
       </c>
       <c r="X5" t="n">
-        <v>44.14872529970091</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>129.7330511559287</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>5.459784706039159</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>135.9081642568982</v>
       </c>
       <c r="H6" t="n">
-        <v>98.37295695711039</v>
+        <v>98.3729569571104</v>
       </c>
       <c r="I6" t="n">
-        <v>39.97768410337662</v>
+        <v>39.9776841033767</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.0221204098324</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.5302692642631</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>119.2624086421958</v>
       </c>
       <c r="J7" t="n">
-        <v>8.282217753029741</v>
+        <v>8.282217753029869</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>123.1863249183065</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.8039959718186</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>140.6822930551262</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>158.5449581562723</v>
+        <v>38.6305095439709</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>137.6713744519662</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>88.76299597128522</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>69.24673011189867</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>217.6533588248208</v>
       </c>
     </row>
     <row r="11">
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.319655661471188e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.54176060244647e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.682666103660761</v>
+        <v>2.682666103660757</v>
       </c>
       <c r="H5" t="n">
-        <v>27.47385423411577</v>
+        <v>27.47385423411573</v>
       </c>
       <c r="I5" t="n">
-        <v>103.4234849613816</v>
+        <v>103.4234849613814</v>
       </c>
       <c r="J5" t="n">
-        <v>227.6879322155777</v>
+        <v>227.6879322155773</v>
       </c>
       <c r="K5" t="n">
-        <v>341.2451883835378</v>
+        <v>341.2451883835373</v>
       </c>
       <c r="L5" t="n">
-        <v>423.3448311534459</v>
+        <v>423.3448311534452</v>
       </c>
       <c r="M5" t="n">
-        <v>471.0526944744229</v>
+        <v>471.0526944744221</v>
       </c>
       <c r="N5" t="n">
-        <v>478.674819541449</v>
+        <v>478.6748195414483</v>
       </c>
       <c r="O5" t="n">
-        <v>451.9990584731723</v>
+        <v>451.9990584731717</v>
       </c>
       <c r="P5" t="n">
-        <v>385.7707390390473</v>
+        <v>385.7707390390466</v>
       </c>
       <c r="Q5" t="n">
-        <v>289.6977592016962</v>
+        <v>289.6977592016957</v>
       </c>
       <c r="R5" t="n">
-        <v>168.5150246340804</v>
+        <v>168.5150246340801</v>
       </c>
       <c r="S5" t="n">
-        <v>61.13125383716964</v>
+        <v>61.13125383716955</v>
       </c>
       <c r="T5" t="n">
-        <v>11.74337086877498</v>
+        <v>11.74337086877497</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2146132882928608</v>
+        <v>0.2146132882928605</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.435352906312454</v>
+        <v>1.435352906312452</v>
       </c>
       <c r="H6" t="n">
-        <v>13.86248727938607</v>
+        <v>13.86248727938605</v>
       </c>
       <c r="I6" t="n">
-        <v>49.41894874803845</v>
+        <v>49.41894874803838</v>
       </c>
       <c r="J6" t="n">
-        <v>135.6093726091078</v>
+        <v>135.6093726091076</v>
       </c>
       <c r="K6" t="n">
-        <v>231.7780173320423</v>
+        <v>231.7780173320419</v>
       </c>
       <c r="L6" t="n">
-        <v>311.6541474868336</v>
+        <v>311.6541474868331</v>
       </c>
       <c r="M6" t="n">
-        <v>363.68569034066</v>
+        <v>363.6856903406594</v>
       </c>
       <c r="N6" t="n">
-        <v>373.3113683834308</v>
+        <v>373.3113683834302</v>
       </c>
       <c r="O6" t="n">
-        <v>341.5069697751391</v>
+        <v>341.5069697751385</v>
       </c>
       <c r="P6" t="n">
-        <v>274.0894510308405</v>
+        <v>274.0894510308401</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.2215394092881</v>
+        <v>183.2215394092878</v>
       </c>
       <c r="R6" t="n">
-        <v>89.11778834104874</v>
+        <v>89.11778834104859</v>
       </c>
       <c r="S6" t="n">
-        <v>26.66105069400544</v>
+        <v>26.6610506940054</v>
       </c>
       <c r="T6" t="n">
-        <v>5.785479477636601</v>
+        <v>5.785479477636592</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09443111225739835</v>
+        <v>0.09443111225739821</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.203351660023239</v>
+        <v>1.203351660023238</v>
       </c>
       <c r="H7" t="n">
-        <v>10.69889021366117</v>
+        <v>10.69889021366116</v>
       </c>
       <c r="I7" t="n">
-        <v>36.18806628506253</v>
+        <v>36.18806628506247</v>
       </c>
       <c r="J7" t="n">
-        <v>85.07696236364303</v>
+        <v>85.07696236364291</v>
       </c>
       <c r="K7" t="n">
-        <v>139.8075837736091</v>
+        <v>139.8075837736089</v>
       </c>
       <c r="L7" t="n">
-        <v>178.9055731638188</v>
+        <v>178.9055731638185</v>
       </c>
       <c r="M7" t="n">
-        <v>188.6308424889156</v>
+        <v>188.6308424889153</v>
       </c>
       <c r="N7" t="n">
-        <v>184.1456226651928</v>
+        <v>184.1456226651925</v>
       </c>
       <c r="O7" t="n">
-        <v>170.0882873640121</v>
+        <v>170.0882873640119</v>
       </c>
       <c r="P7" t="n">
-        <v>145.5399134995379</v>
+        <v>145.5399134995377</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.7642921861278</v>
+        <v>100.7642921861277</v>
       </c>
       <c r="R7" t="n">
-        <v>54.1070664588631</v>
+        <v>54.10706645886302</v>
       </c>
       <c r="S7" t="n">
-        <v>20.97113756604136</v>
+        <v>20.97113756604132</v>
       </c>
       <c r="T7" t="n">
-        <v>5.141593456462931</v>
+        <v>5.141593456462923</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06563736327399496</v>
+        <v>0.06563736327399486</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31847,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33743,10 +33743,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -34454,10 +34454,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>46.6420276888914</v>
+        <v>46.64202768889106</v>
       </c>
       <c r="K5" t="n">
-        <v>121.1553373385572</v>
+        <v>121.1553373385567</v>
       </c>
       <c r="L5" t="n">
-        <v>187.5784161834586</v>
+        <v>187.578416183458</v>
       </c>
       <c r="M5" t="n">
-        <v>240.7064612471501</v>
+        <v>240.7064612471494</v>
       </c>
       <c r="N5" t="n">
-        <v>249.2617559448581</v>
+        <v>249.2617559448574</v>
       </c>
       <c r="O5" t="n">
-        <v>221.9008470514856</v>
+        <v>221.9008470514849</v>
       </c>
       <c r="P5" t="n">
-        <v>154.5377432837777</v>
+        <v>154.5377432837771</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.39206932724667</v>
+        <v>67.39206932724622</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.771745942441129</v>
+        <v>8.77174594244093</v>
       </c>
       <c r="K6" t="n">
-        <v>93.93657835768326</v>
+        <v>93.93657835768292</v>
       </c>
       <c r="L6" t="n">
-        <v>173.0997677069594</v>
+        <v>173.0997677069589</v>
       </c>
       <c r="M6" t="n">
-        <v>221.5516564186416</v>
+        <v>221.5516564186411</v>
       </c>
       <c r="N6" t="n">
-        <v>241.9696563000975</v>
+        <v>241.9696563000969</v>
       </c>
       <c r="O6" t="n">
-        <v>198.9107253306946</v>
+        <v>198.9107253306941</v>
       </c>
       <c r="P6" t="n">
-        <v>140.1150436165103</v>
+        <v>140.1150436165099</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.8194843923976</v>
+        <v>210.819484392396</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>117.5380919477262</v>
+        <v>117.538091947726</v>
       </c>
       <c r="L7" t="n">
-        <v>206.4955984241349</v>
+        <v>206.4955984241346</v>
       </c>
       <c r="M7" t="n">
-        <v>228.2147194507562</v>
+        <v>228.2147194507559</v>
       </c>
       <c r="N7" t="n">
-        <v>228.2777950444214</v>
+        <v>228.2777950444211</v>
       </c>
       <c r="O7" t="n">
-        <v>194.6734152780518</v>
+        <v>194.6734152780516</v>
       </c>
       <c r="P7" t="n">
-        <v>142.8184727644314</v>
+        <v>142.8184727644312</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.60224893443343</v>
+        <v>14.60224893443328</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>399.0408075038491</v>
+        <v>399.0408075038509</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847781</v>
+        <v>304.4954681847784</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>13.85280893410663</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>15.48193198348422</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>156.58989002316</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>256.46845489719</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>280.9040898900914</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>279.7143300212427</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010484</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
